--- a/data/trans_dic/P28A_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28A_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más alcohol respecto al último mes</t>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>11,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,15%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,29%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>5,48%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,6</t>
+          <t>1,64; 7,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,76; 25,54</t>
+          <t>7,12; 18,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 13,49</t>
+          <t>0,77; 7,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,92; 15,28</t>
+          <t>2,8; 12,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,09; 16,95</t>
+          <t>1,91; 11,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,27</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,93; 30,04</t>
+          <t>8,5; 19,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 13,15</t>
+          <t>2,08; 9,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 20,33</t>
+          <t>5,03; 13,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 16,96</t>
+          <t>1,81; 10,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,76</t>
+          <t>1,35; 4,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 25,33</t>
+          <t>8,61; 16,24</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 10,11</t>
+          <t>2,03; 6,79</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,45</t>
+          <t>4,79; 11,33</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 14,76</t>
+          <t>2,76; 9,07</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,42%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,94%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
           <t>3,25%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,29%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,35%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>12,76%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>13,89%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>8,37%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,9%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,47%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>11,29%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>19,43%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>5,3%</t>
-        </is>
-      </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>8,22%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,02; 16,16</t>
+          <t>4,1; 11,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,22; 38,79</t>
+          <t>9,04; 25,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,9</t>
+          <t>0,89; 5,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 11,17</t>
+          <t>2,24; 8,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 19,75</t>
+          <t>3,4; 14,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 20,59</t>
+          <t>3,92; 11,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,06; 22,32</t>
+          <t>3,24; 10,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,33; 14,81</t>
+          <t>2,21; 7,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,01</t>
+          <t>0,49; 4,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 9,46</t>
+          <t>0,5; 4,3</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,69; 15,95</t>
+          <t>4,74; 9,95</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,26; 29,07</t>
+          <t>7,5; 17,36</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,27</t>
+          <t>1,76; 5,13</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,55</t>
+          <t>1,91; 5,61</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 13,94</t>
+          <t>2,19; 7,75</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>15,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>6,01%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,59; 29,41</t>
+          <t>11,11; 20,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 16,77</t>
+          <t>5,18; 12,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,81</t>
+          <t>0,91; 5,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 9,3</t>
+          <t>1,77; 5,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,09</t>
+          <t>1,3; 5,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,95</t>
+          <t>5,91; 11,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 13,59</t>
+          <t>2,06; 6,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 7,01</t>
+          <t>0,66; 3,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,64</t>
+          <t>0,49; 3,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 13,12</t>
+          <t>1,62; 6,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,88; 23,13</t>
+          <t>9,18; 14,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,04; 14,01</t>
+          <t>4,14; 8,36</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,25</t>
+          <t>1,07; 3,6</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,81</t>
+          <t>1,34; 3,58</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 9,28</t>
+          <t>2,01; 5,47</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>3,55%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,88</t>
+          <t>5,15; 11,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 12,21</t>
+          <t>3,14; 9,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,37</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,23</t>
+          <t>0,6; 7,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,15; 13,4</t>
+          <t>2,02; 7,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,04; 12,74</t>
+          <t>2,55; 6,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 13,11</t>
+          <t>1,84; 6,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 5,6</t>
+          <t>0,29; 2,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,02</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 14,25</t>
+          <t>0,89; 5,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 12,59</t>
+          <t>4,32; 8,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,92; 10,27</t>
+          <t>3,11; 6,71</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,19</t>
+          <t>0,4; 1,84</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 5,65</t>
+          <t>0,43; 3,67</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>4,29; 11,45</t>
+          <t>1,92; 5,58</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1361,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1444,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,52</t>
+          <t>2,68; 8,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,44</t>
+          <t>0,87; 4,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>0,0; 1,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,94</t>
+          <t>0,0; 2,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,52</t>
+          <t>0,0; 2,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,49; 18,26</t>
+          <t>2,04; 7,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 13,34</t>
+          <t>0,45; 4,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,93</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,77</t>
+          <t>0,0; 2,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,23</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,65; 12,79</t>
+          <t>2,98; 6,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 7,41</t>
+          <t>1,02; 3,75</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,65</t>
+          <t>0,16; 1,44</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,33</t>
+          <t>0,17; 1,44</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 1,79</t>
         </is>
       </c>
     </row>
@@ -1530,22 +1531,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1555,12 +1556,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1570,7 +1571,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1580,22 +1581,22 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1613,77 +1614,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,62</t>
+          <t>0,39; 3,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 10,28</t>
+          <t>0,5; 5,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,69</t>
+          <t>0,0; 2,79</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,1</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,58</t>
+          <t>0,0; 2,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,37</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,1</t>
+          <t>0,0; 2,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,87</t>
+          <t>0,34; 1,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,31; 8,31</t>
+          <t>0,42; 2,48</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,1</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,79</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1700,77 +1701,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,53%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>5,92%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>5,64%</t>
+          <t>2,81%</t>
         </is>
       </c>
     </row>
@@ -1783,77 +1784,84 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,65; 12,51</t>
+          <t>5,94; 8,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,88; 14,45</t>
+          <t>6,09; 9,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,63</t>
+          <t>0,97; 2,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 5,72</t>
+          <t>2,02; 4,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,18</t>
+          <t>2,51; 4,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,41; 11,49</t>
+          <t>3,37; 5,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,44; 13,57</t>
+          <t>3,31; 5,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,85</t>
+          <t>1,29; 2,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,82; 6,15</t>
+          <t>1,41; 2,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 7,61</t>
+          <t>1,29; 2,96</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>8,6; 11,56</t>
+          <t>4,86; 6,51</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,25; 13,13</t>
+          <t>5,02; 7,23</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,03</t>
+          <t>1,33; 2,39</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,34</t>
+          <t>1,88; 3,13</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,14</t>
+          <t>2,17; 3,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1873,4 +1881,1969 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más alcohol respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>20284</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>58290</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16005</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33017</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2413</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>4918</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>60680</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>23717</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>43082</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1942</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25202</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>118970</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>39722</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>76098</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8407; 39274</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35739; 92539</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4009; 39791</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14295; 66152</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>805; 4952</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 15898</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>39833; 91431</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10729; 46823</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>25863; 68867</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>676; 4058</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>13215; 45793</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>83589; 157656</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21054; 70312</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>49058; 116004</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2194; 7205</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>39947</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86001</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12824</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>27810</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>34192</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>33174</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22088</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>10007</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>740</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>74140</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>119175</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>34912</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>37817</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23121; 65951</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>51808; 145299</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5035; 29080</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>13256; 51650</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1684; 6937</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>20362; 58871</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16753; 55194</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11219; 38755</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2558; 24723</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>237; 2027</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>51246; 107698</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>81748; 189123</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>18864; 55039</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>21144; 62238</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2120; 7494</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>103679</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56926</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15785</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>22802</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1838</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>57156</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27138</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12387</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9395</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1937</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>160835</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>84063</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>28172</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>32198</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>75081; 135188</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>35562; 83605</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6201; 35577</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12015; 38976</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>785; 3473</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41035; 81266</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14663; 45851</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4712; 27485</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3492; 21404</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>869; 3448</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>125827; 199585</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>57919; 116877</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>14999; 50435</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18635; 49857</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>2291; 6230</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51223</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>37552</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4018</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13280</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2572</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>29719</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>24178</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7844</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3165</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1361</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80941</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>61730</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>11862</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>16445</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>32905; 72586</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20351; 59519</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 13892</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3846; 46517</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1178; 4494</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>17899; 47320</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>12645; 42181</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1923; 19603</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9675</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>465; 2700</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>57932; 108940</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41501; 89463</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>5232; 24188</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>5596; 47578</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2126; 6172</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>26394</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10951</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1811</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20903</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8868</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3647</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3569</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>47297</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>19819</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>5337</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>5381</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13724; 42634</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>4308; 24031</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7949</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 9949</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1062</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10261; 37576</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2276; 22029</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0; 14507</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12330</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1314</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>30242; 68297</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10209; 37656</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>1601; 14474</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1740; 14554</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1663</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6893</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>11283</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2326</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4356</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2811</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2753</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11249</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>14094</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>4229</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5079</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2129; 19544</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>2719; 29885</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14765</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 11289</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15914</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 15755</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14668</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4323; 23352</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>5296; 31372</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14463</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>0; 17527</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>248420</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>261003</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>54551</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>101046</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10755</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>151244</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>156849</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>69684</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>71972</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>6203</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>399663</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>417852</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>124234</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>173018</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>16958</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>204940; 296039</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>210191; 334986</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>33267; 83722</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>69688; 144911</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7543; 14892</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>121669; 190116</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>119636; 197672</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>46496; 97891</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>51063; 108140</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3912; 8956</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>342964; 459435</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>354216; 510667</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>94043; 168688</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>132630; 220792</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>13119; 21870</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>